--- a/testData.xlsx
+++ b/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Semester_5\04 Gr I\Mündliche Prüfung\karten generieren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\GitHub\loop-read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C12C77-C551-4E30-8D49-107F15404828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F4864C-6A51-4FBB-88BD-AC66603BC188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12405" yWindow="4545" windowWidth="18390" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -420,79 +420,79 @@
     <t>Analyse</t>
   </si>
   <si>
-    <t>§τῇ§ Art.Dat.Sg.f. {ὁ} der || §ἡμέρᾳ§ Subst.Dat.Sg.f. {ἡμέρα} Tag || §τῇ§ Art.Dat.Sg.f. {ὁ} der || §τρίτῃ§ Adj.Dat.Sg.f. {τρίτος} dritter || §γάμος§ Subst.Nom.Sg.m. Hochzeit || §ἐγένετο§ Verb.Aor.Ind.Med.3.Sg. {γίνομαι} geschehen || §ἐν§ Präp.+Dat. in || §Κανὰ§ Eigenname.Dat.Sg. Kana || §τῆς§ Art.Gen.Sg.f. {ὁ} der || §Γαλιλαίας§ Eigenname.Gen.Sg.f. {Γαλιλαία} Galiläa || §ἦν§ Verb.Imperf.Ind.Akt.3.Sg. {εἰμί} sein || §μήτηρ§ Subst.Nom.Sg.f. Mutter || §τοῦ§ Art.Gen.Sg.m. {ὁ} des || §Ἰησοῦ§ Eigenname.Gen.Sg.m. {Ἰησοῦς} Jesus || §ἐκεῖ§ Adv. dort</t>
-  </si>
-  <si>
-    <t>§ἐκλήθη§ Verb.Aor.Ind.Pass.3.Sg. {καλέω} rufen || §δὲ§ Part. aber || §Ἰησοῦς§ Eigenname.Nom.Sg.m. Jesus || §οἱ§ Art.Nom.Pl.m. die || §μαθηταί§ Subst.Nom.Pl.m. {μαθητής} Jünger || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §εἰς§ Präp.+Akk. zu || §τὸν§ Art.Akk.Sg.m. {ὁ} der || §γάμον§ Subst.Akk.Sg.m. Hochzeit</t>
-  </si>
-  <si>
-    <t>§ὑστερήσαντος§ Part.Aor.Akt.Gen.Sg.m./n.GenAbs {ὑστερέω} fehlen || §οἴνου§ Subst.Gen.Sg.m. {οἶνος} Wein || §λέγει§ Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || §μήτηρ§ Subst.Nom.Sg.f. Mutter || §τοῦ§ Art.Gen.Sg.m. {ὁ} des || §Ἰησοῦ§ Eigenname.Gen.Sg.m. {Ἰησοῦς} Jesus || §πρὸς§ Präp.+Akk. zu || §αὐτόν§ Pron.Akk.Sg.m. er || §οἶνον§ Subst.Akk.Sg.m. {οἶνος} Wein || §οὐκ§ Neg. nicht || §ἔχουσιν§ Verb.Präs.Ind.Akt.3.Pl. {ἔχω} haben</t>
-  </si>
-  <si>
-    <t>§λέγει§ Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || §αὐτῇ§ Pron.Dat.Sg.f. sie || §Ἰησοῦς§ Eigenname.Nom.Sg.m. Jesus || §τί§ Interrog.Pron.Akk.Sg.n. was || §ἐμοί§ Pron.Dat.Sg. {ἐγώ} ich || §σοί§ Pron.Dat.Sg. {σύ} du || §γύναι§ Subst.Vok.Sg.f. {γυνή} Frau || §οὔπω§ Adv. noch || §ἥκει§ Verb.Präs.Ind.Akt.3.Sg. {ἥκω} kommen || §ὥρα§ Subst.Nom.Sg.f. Stunde || §μου§ Pron.Gen.Sg. {ἐγώ} mein</t>
-  </si>
-  <si>
-    <t>§λέγει§ Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || §μήτηρ§ Subst.Nom.Sg.f. Mutter || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §τοῖς§ Art.Dat.Pl.m. {ὁ} den || §διακόνοις§ Subst.Dat.Pl.m. {διάκονος} Diener || §ὅ§ RelPron.Akk.Sg.n. {ὅς} was || §τι§ Indef.Pron. irgend || §ἄν§ Part. — || §λέγῃ§ Verb.Präs.Konj.Akt.3.Sg. {λέγω} sagen || §ὑμῖν§ Pron.Dat.Pl. {σύ} ihr || §ποιήσατε§ Verb.Aor.Imp.Akt.2.Pl. {ποιέω} tun</t>
-  </si>
-  <si>
-    <t>§ἦσαν§ Verb.Imperf.Ind.Akt.3.Pl. {εἰμί} sein || §δὲ§ Part. aber || §ἐκεῖ§ Adv. dort || §λίθιναι§ Adj.Nom.Pl.f. {λίθινος} steinern || §ὑδρίαι§ Subst.Nom.Pl.f. {ὑδρία} Wasserkrug || §ἓξ§ Zahlw.indecl. sechs || §κατὰ§ Präp.+Akk. nach || §τὸν§ Art.Akk.Sg.m. {ὁ} der || §καθαρισμόν§ Subst.Akk.Sg.m. {καθαρισμός} Reinigung || §τῶν§ Art.Gen.Pl.m. {ὁ} der || §Ἰουδαίων§ Subst.Gen.Pl.m. {Ἰουδαῖος} Jude || §κείμεναι§ Part.Präs.M/P.Nom.Pl.f. {κεῖμαι} liegen || §χωροῦσαι§ Part.Präs.Akt.Nom.Pl.f. {χωρέω} fassen || §ἀνὰ§ Präp.+Akk. je || §μετρητὰς§ Subst.Akk.Pl.m. {μετρητής} Metrete || §δύο§ Zahlw.indecl. zwei || §ἢ§ Konj. oder || §τρεῖς§ Zahlw.Akk.Pl.m. drei</t>
-  </si>
-  <si>
-    <t>§λέγει§ Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || §αὐτοῖς§ Pron.Dat.Pl.m. {αὐτός} sie || §Ἰησοῦς§ Eigenname.Nom.Sg.m. Jesus || §γεμίσατε§ Verb.Aor.Imp.Akt.2.Pl. {γεμίζω} füllen || §τὰς§ Art.Akk.Pl.f. {ὁ} die || §ὑδρίας§ Subst.Akk.Pl.f. {ὑδρία} Krug || §ὕδατος§ Subst.Gen.Sg.n. {ὕδωρ} Wasser || §ἐγέμισαν§ Verb.Aor.Ind.Akt.3.Pl. {γεμίζω} füllen || §αὐτὰς§ Pron.Akk.Pl.f. {αὐτός} sie || §ἕως§ Konj./Präp. bis || §ἄνω§ Adv. oben</t>
-  </si>
-  <si>
-    <t>§λέγει§ Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || §αὐτοῖς§ Pron.Dat.Pl.m. {αὐτός} sie || §ἀντλήσατε§ Verb.Aor.Imp.Akt.2.Pl. {ἀντλέω} schöpfen || §νῦν§ Adv. jetzt || §φέρετε§ Verb.Präs.Imp.Akt.2.Pl. {φέρω} bringen || §τῷ§ Art.Dat.Sg.m. {ὁ} der || §ἀρχιτρικλίνῳ§ Subst.Dat.Sg.m. {ἀρχιτρίκλινος} Speisemeister || §οἱ§ Art.Nom.Pl.m. die || §δὲ§ Part. aber || §ἤνεγκαν§ Verb.Aor.Ind.Akt.3.Pl. {φέρω} bringen</t>
-  </si>
-  <si>
-    <t>§ὡς§ Konj. als || §δὲ§ Part. aber || §ἐγεύσατο§ Verb.Aor.Ind.Med.3.Sg. {γεύομαι} kosten || §ἀρχιτρίκλινος§ Subst.Nom.Sg.m. Speisemeister || §τὸ§ Art.Akk.Sg.n. {ὁ} das || §ὕδωρ§ Subst.Akk.Sg.n. {ὕδωρ} Wasser || §οἶνον§ Subst.Akk.Sg.m. {οἶνος} Wein || §γεγενημένον§ Part.Perf.M/P.Akk.Sg.m/n. {γίνομαι} werden || §οὐκ§ Neg. nicht || §ᾔδει§ Verb.Plqpf.Ind.Akt.3.Sg. {οἶδα} wissen || §πόθεν§ Interrog.Adv. woher || §ἐστίν§ Verb.Präs.Ind.Akt.3.Sg. {εἰμί} sein || §οἱ§ Art.Nom.Pl.m. die || §δὲ§ Part. aber || §διάκονοι§ Subst.Nom.Pl.m. Diener || §ᾔδεισαν§ Verb.Plqpf.Ind.Akt.3.Pl. {οἶδα} wissen || §οἱ§ Art.Nom.Pl.m. die || §ἠντληκότες§ Part.Perf.Akt.Nom.Pl.m. {ἀντλέω} schöpfen || §τὸ§ Art.Akk.Sg.n. {ὁ} das || §ὕδωρ§ Subst.Akk.Sg.n. {ὕδωρ} Wasser || §φωνεῖ§ Verb.Präs.Ind.Akt.3.Sg. {φωνέω} rufen || §τὸν§ Art.Akk.Sg.m. {ὁ} den || §νυμφίον§ Subst.Akk.Sg.m. {νυμφίος} Bräutigam || §ἀρχιτρίκλινος§ Subst.Nom.Sg.m. Speisemeister</t>
-  </si>
-  <si>
-    <t>§λέγει§ Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || §αὐτῷ§ Pron.Dat.Sg.m. {αὐτός} er || §πᾶς§ Adj.Nom.Sg.m. jeder || §ἄνθρωπος§ Subst.Nom.Sg.m. {ἄνθρωπος} Mensch || §πρῶτον§ Adv. {πρῶτος} zuerst || §τὸν§ Art.Akk.Sg.m. {ὁ} den || §καλὸν§ Adj.Akk.Sg.m. {καλός} gut || §οἶνον§ Subst.Akk.Sg.m. {οἶνος} Wein || §τίθησιν§ Verb.Präs.Ind.Akt.3.Sg. {τίθημι} stellen || §ὅταν§ Konj. wenn || §μεθυσθῶσιν§ Verb.Aor.Konj.Pass.3.Pl. {μεθύσκω} berauschen || §τὸν§ Art.Akk.Sg.m. {ὁ} den || §ἐλάσσω§ Adj.Akk.Sg.m. {ἐλάσσων} gering || §σὺ§ Pron.Nom.Sg. {σύ} du || §τετήρηκας§ Verb.Perf.Ind.Akt.2.Sg. {τηρέω} aufbewahren || §τὸν§ Art.Akk.Sg.m. {ὁ} den || §καλὸν§ Adj.Akk.Sg.m. {καλός} gut || §οἶνον§ Subst.Akk.Sg.m. {οἶνος} Wein || §ἕως§ Konj. bis || §ἄρτι§ Adv. jetzt</t>
-  </si>
-  <si>
-    <t>§Ταύτην§ DemPron.Akk.Sg.f. {οὗτος} dieses || §ἐποίησεν§ Verb.Aor.Ind.Akt.3.Sg. {ποιέω} machen || §ἀρχὴν§ Subst.Akk.Sg.f. {ἀρχή} Anfang || §τῶν§ Art.Gen.Pl.n. {ὁ} der || §σημείων§ Subst.Gen.Pl.n. {σημεῖον} Zeichen || §Ἰησοῦς§ Eigenname.Nom.Sg.m. Jesus || §ἐν§ Präp.+Dat. in || §Κανὰ§ Eigenname.Dat.Sg. Kana || §τῆς§ Art.Gen.Sg.f. {ὁ} der || §Γαλιλαίας§ Eigenname.Gen.Sg.f. {Γαλιλαία} Galiläa || §ἐφανέρωσεν§ Verb.Aor.Ind.Akt.3.Sg. {φανερόω} offenbaren || §τὴν§ Art.Akk.Sg.f. {ὁ} die || §δόξαν§ Subst.Akk.Sg.f. {δόξα} Herrlichkeit || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §ἐπίστευσαν§ Verb.Aor.Ind.Akt.3.Pl. {πιστεύω} glauben || §εἰς§ Präp.+Akk. in || §αὐτὸν§ Pron.Akk.Sg.m. {αὐτός} er || §οἱ§ Art.Nom.Pl.m. die || §μαθηταί§ Subst.Nom.Pl.m. {μαθητής} Jünger || §αὐτοῦ§ Pron.Gen.Sg.m. sein</t>
-  </si>
-  <si>
-    <t>§Μετὰ§ Präp.+Akk. nach || §τοῦτο§ DemPron.Akk.Sg.n. {οὗτος} dieses || §κατέβη§ Verb.Aor.Ind.Akt.3.Sg. {καταβαίνω} hinabgehen || §εἰς§ Präp.+Akk. nach || §Καφαρναοὺμ§ Eigenname.Akk.Sg. Kapernaum || §αὐτὸς§ Pron.Nom.Sg.m. {αὐτός} er || §μήτηρ§ Subst.Nom.Sg.f. Mutter || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §οἱ§ Art.Nom.Pl.m. die || §ἀδελφοὶ§ Subst.Nom.Pl.m. {ἀδελφός} Bruder || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §οἱ§ Art.Nom.Pl.m. die || §μαθηταί§ Subst.Nom.Pl.m. {μαθητής} Jünger || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §ἐκεῖ§ Adv. dort || §ἔμειναν§ Verb.Aor.Ind.Akt.3.Pl. {μένω} bleiben || §οὐ§ Neg. nicht || §πολλὰς§ Adj.Akk.Pl.f. {πολύς} viel || §ἡμέρας§ Subst.Akk.Pl.f. {ἡμέρα} Tag</t>
-  </si>
-  <si>
-    <t>§ἐγγὺς§ Adv. nahe || §ἦν§ Verb.Imperf.Ind.Akt.3.Sg. {εἰμί} sein || §πάσχα§ Subst.Nom.Sg.n. Passa || §τῶν§ Art.Gen.Pl.m. {ὁ} der || §Ἰουδαίων§ Subst.Gen.Pl.m. {Ἰουδαῖος} Jude || §ἀνέβη§ Verb.Aor.Ind.Akt.3.Sg. {ἀναβαίνω} hinaufgehen || §εἰς§ Präp.+Akk. nach || §Ἱεροσόλυμα§ Eigenname.Akk.Pl.n. Jerusalem || §Ἰησοῦς§ Eigenname.Nom.Sg.m. Jesus</t>
-  </si>
-  <si>
-    <t>§εὗρεν§ Verb.Aor.Ind.Akt.3.Sg. {εὑρίσκω} finden || §ἐν§ Präp.+Dat. in || §τῷ§ Art.Dat.Sg.n. {ὁ} dem || §ἱερῷ§ Subst.Dat.Sg.n. {ἱερόν} Tempel || §τοὺς§ Art.Akk.Pl.m. {ὁ} die || §πωλοῦντας§ Part.Präs.Akt.Akk.Pl.m. {πωλέω} verkaufen || §βόας§ Subst.Akk.Pl.m. {βοῦς} Rind || §πρόβατα§ Subst.Akk.Pl.n. {πρόβατον} Schaf || §περιστερὰς§ Subst.Akk.Pl.f. {περιστερά} Taube || §τοὺς§ Art.Akk.Pl.m. {ὁ} die || §κερματιστὰς§ Subst.Akk.Pl.m. {κερματιστής} Geldwechsler || §καθημένους§ Part.Präs.M/P.Akk.Pl.m. {κάθημαι} sitzen</t>
-  </si>
-  <si>
-    <t>§ποιήσας§ Part.Aor.Akt.Nom.Sg.m. {ποιέω} machen || §φραγέλλιον§ Subst.Akk.Sg.n. Geißel || §ἐκ§ Präp.+Gen. aus || §σχοινίων§ Subst.Gen.Pl.n. {σχοινίον} Strick || §πάντας§ Adj.Akk.Pl.m. {πᾶς} alle || §ἐξέβαλεν§ Verb.Aor.Ind.Akt.3.Sg. {ἐκβάλλω} hinauswerfen || §ἐκ§ Präp.+Gen. aus || §τοῦ§ Art.Gen.Sg.n. {ὁ} des || §ἱεροῦ§ Subst.Gen.Sg.n. {ἱερόν} Tempel || §τά§ Art.Akk.Pl.n. {ὁ} die || §τε§ Part. — || §πρόβατα§ Subst.Akk.Pl.n. {πρόβατον} Schaf || §τοὺς§ Art.Akk.Pl.m. {ὁ} die || §βόας§ Subst.Akk.Pl.m. {βοῦς} Rind || §τῶν§ Art.Gen.Pl.m. {ὁ} der || §κολλυβιστῶν§ Subst.Gen.Pl.m. {κολλυβιστής} Geldwechsler || §ἐξέχεεν§ Verb.Aor.Ind.Akt.3.Sg. {ἐκχέω} ausschütten || §τὸ§ Art.Akk.Sg.n. {ὁ} die || §κέρμα§ Subst.Akk.Sg.n. {κέρμα} Münze || §τὰς§ Art.Akk.Pl.f. {ὁ} die || §τραπέζας§ Subst.Akk.Pl.f. {τράπεζα} Tisch || §ἀνέτρεψεν§ Verb.Aor.Ind.Akt.3.Sg. {ἀνατρέπω} umstürzen</t>
-  </si>
-  <si>
-    <t>§τοῖς§ Art.Dat.Pl.m. {ὁ} den || §τὰς§ Art.Akk.Pl.f. {ὁ} die || §περιστερὰς§ Subst.Akk.Pl.f. {περιστερά} Taube || §πωλοῦσιν§ Part.Präs.Akt.Dat.Pl.m. {πωλέω} verkaufen || §εἶπεν§ Verb.Aor.Ind.Akt.3.Sg. {λέγω} sagen || §ἄρατε§ Verb.Aor.Imp.Akt.2.Pl. {αἴρω} nehmen || §ταῦτα§ DemPron.Akk.Pl.n. {οὗτος} dies || §ἐντεῦθεν§ Adv. weg || §μὴ§ Neg. nicht || §ποιεῖτε§ Verb.Präs.Imp.Akt.2.Pl. {ποιέω} machen || §τὸν§ Art.Akk.Sg.m. {ὁ} den || §οἶκον§ Subst.Akk.Sg.m. {οἶκος} Haus || §τοῦ§ Art.Gen.Sg.m. {ὁ} des || §πατρός§ Subst.Gen.Sg.m. {πατήρ} Vater || §μου§ Pron.Gen.Sg. {ἐγώ} mein || §οἶκον§ Subst.Akk.Sg.m. {οἶκος} Haus || §ἐμπορίου§ Subst.Gen.Sg.n. {ἐμπόριον} Handel</t>
-  </si>
-  <si>
-    <t>§ἐμνήσθησαν§ Verb.Aor.Ind.Pass.3.Pl.(Depon.) {μιμνῄσκομαι} sich-erinnern || §οἱ§ Art.Nom.Pl.m. die || §μαθηταὶ§ Subst.Nom.Pl.m. {μαθητής} Jünger || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §ὅτι§ Konj. dass || §γεγραμμένον§ Part.Perf.M/P.Nom/Akk.Sg.n. {γράφω} geschrieben || §ἐστίν§ Verb.Präs.Ind.Akt.3.Sg. {εἰμί} sein || §ζῆλος§ Subst.Nom.Sg.m. Eifer || §τοῦ§ Art.Gen.Sg.m. {ὁ} des || §οἴκου§ Subst.Gen.Sg.m. {οἶκος} Haus || §σου§ Pron.Gen.Sg. {σύ} dein || §καταφάγεταί§ Verb.Fut.Ind.Med.3.Sg. {καταφάγω} verzehren || §με§ Pron.Akk.Sg. {ἐγώ} ich</t>
-  </si>
-  <si>
-    <t>§Ἀπεκρίθησαν§ Verb.Aor.Ind.Pass.3.Pl.(Depon.) {ἀποκρίνομαι} antworten || §οὖν§ Part. nun || §οἱ§ Art.Nom.Pl.m. die || §Ἰουδαῖοι§ Subst.Nom.Pl.m. {Ἰουδαῖος} Jude || §εἶπαν§ Verb.Aor.Ind.Akt.3.Pl. {λέγω} sagen || §αὐτῷ§ Pron.Dat.Sg.m. {αὐτός} er || §τί§ Interrog.Pron.Akk.Sg.n. was || §σημεῖον§ Subst.Akk.Sg.n. {σημεῖον} Zeichen || §δεικνύεις§ Verb.Präs.Ind.Akt.2.Sg. {δείκνυμι} zeigen || §ἡμῖν§ Pron.Dat.Pl. {ἐγώ} wir || §ὅτι§ Konj. dass || §ταῦτα§ DemPron.Akk.Pl.n. {οὗτος} dieser || §ποιεῖς§ Verb.Präs.Ind.Akt.2.Sg. {ποιέω} tun</t>
-  </si>
-  <si>
-    <t>§ἀπεκρίθη§ Verb.Aor.Ind.Pass.3.Sg.(Depon.) {ἀποκρίνομαι} antworten || §Ἰησοῦς§ Eigenname.Nom.Sg.m. Jesus || §εἶπεν§ Verb.Aor.Ind.Akt.3.Sg. {λέγω} sagen || §αὐτοῖς§ Pron.Dat.Pl.m. {αὐτός} sie || §λύσατε§ Verb.Aor.Imp.Akt.2.Pl. {λύω} lösen || §τὸν§ Art.Akk.Sg.m. {ὁ} den || §ναὸν§ Subst.Akk.Sg.m. {ναός} Tempel || §τοῦτον§ DemPron.Akk.Sg.m. {οὗτος} dieser || §ἐν§ Präp.+Dat. in || §τρισὶν§ Zahlw.Dat.Pl. {τρεῖς} drei || §ἡμέραις§ Subst.Dat.Pl.f. {ἡμέρα} Tag || §ἐγερῶ§ Verb.Fut.Ind.Akt.1.Sg. {ἐγείρω} aufrichten || §αὐτόν§ Pron.Akk.Sg.m. {αὐτός} er</t>
-  </si>
-  <si>
-    <t>§εἶπαν§ Verb.Aor.Ind.Akt.3.Pl. {λέγω} sagen || §οὖν§ Part. nun || §οἱ§ Art.Nom.Pl.m. die || §Ἰουδαῖοι§ Subst.Nom.Pl.m. {Ἰουδαῖος} Jude || §τεσσεράκοντα§ Zahlw.indecl. vierzig || §ἓξ§ Zahlw.indecl. sechs || §ἔτεσιν§ Subst.Dat.Pl.n. {ἔτος} Jahr || §οἰκοδομήθη§ Verb.Aor.Ind.Pass.3.Sg. {οἰκοδομέω} bauen || §ναὸς§ Subst.Nom.Sg.m. {ναός} Tempel || §οὗτος§ DemPron.Nom.Sg.m. {οὗτος} dieser || §σὺ§ Pron.Nom.Sg. {σύ} du || §ἐν§ Präp.+Dat. in || §τρισὶν§ Zahlw.Dat.Pl. {τρεῖς} drei || §ἡμέραις§ Subst.Dat.Pl.f. {ἡμέρα} Tag || §ἐγερεῖς§ Verb.Fut.Ind.Akt.2.Sg. {ἐγείρω} aufrichten || §αὐτόν§ Pron.Akk.Sg.m. {αὐτός} er</t>
-  </si>
-  <si>
-    <t>§ἐκεῖνος§ DemPron.Nom.Sg.m. jener || §δὲ§ Part. aber || §ἔλεγεν§ Verb.Imperf.Ind.Akt.3.Sg. {λέγω} sagen || §περὶ§ Präp.+Gen. über || §τοῦ§ Art.Gen.Sg.m. {ὁ} des || §ναοῦ§ Subst.Gen.Sg.m. {ναός} Tempel || §τοῦ§ Art.Gen.Sg.n. {ὁ} des || §σώματος§ Subst.Gen.Sg.n. {σῶμα} Leib || §αὐτοῦ§ Pron.Gen.Sg.m. sein</t>
-  </si>
-  <si>
-    <t>§ὅτε§ Konj. als || §οὖν§ Part. nun || §ἠγέρθη§ Verb.Aor.Ind.Pass.3.Sg. {ἐγείρω} auferwecken || §ἐκ§ Präp.+Gen. aus || §νεκρῶν§ Subst.Gen.Pl.m. {νεκρός} Toter || §ἐμνήσθησαν§ Verb.Aor.Ind.Pass.3.Pl.(Depon.) {μιμνῄσκομαι} sich-erinnern || §οἱ§ Art.Nom.Pl.m. die || §μαθηταὶ§ Subst.Nom.Pl.m. {μαθητής} Jünger || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §ὅτι§ Konj. dass || §τοῦτο§ DemPron.Akk.Sg.n. {οὗτος} dieses || §ἔλεγεν§ Verb.Imperf.Ind.Akt.3.Sg. {λέγω} sagen || §ἐπίστευσαν§ Verb.Aor.Ind.Akt.3.Pl. {πιστεύω} glauben || §τῇ§ Art.Dat.Sg.f. {ὁ} der || §γραφῇ§ Subst.Dat.Sg.f. {γραφή} Schrift || §τῷ§ Art.Dat.Sg.m. {ὁ} dem || §λόγῳ§ Subst.Dat.Sg.m. {λόγος} Wort || §ὃν§ RelPron.Akk.Sg.m. {ὅς} der || §εἶπεν§ Verb.Aor.Ind.Akt.3.Sg. {λέγω} sagen || §Ἰησοῦς§ Eigenname.Nom.Sg.m. Jesus</t>
-  </si>
-  <si>
-    <t>§Ὡς§ Konj. als || §δὲ§ Part. aber || §ἦν§ Verb.Imperf.Ind.Akt.3.Sg. {εἰμί} sein || §ἐν§ Präp.+Dat. in || §τοῖς§ Art.Dat.Pl.n. {ὁ} den || §Ἱεροσολύμοις§ Eigenname.Dat.Pl.n. Jerusalem || §ἐν§ Präp.+Dat. an || §τῷ§ Art.Dat.Sg.n. {ὁ} dem || §πάσχα§ Subst.Dat.Sg.n. Passa || §ἐν§ Präp.+Dat. an || §τῇ§ Art.Dat.Sg.f. {ὁ} der || §ἑορτῇ§ Subst.Dat.Sg.f. {ἑορτή} Fest || §πολλοὶ§ Adj.Nom.Pl.m. {πολύς} viel || §ἐπίστευσαν§ Verb.Aor.Ind.Akt.3.Pl. {πιστεύω} glauben || §εἰς§ Präp.+Akk. in || §τὸ§ Art.Akk.Sg.n. {ὁ} den || §ὄνομα§ Subst.Akk.Sg.n. {ὄνομα} Name || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §θεωροῦντες§ Part.Präs.Akt.Nom.Pl.m. {θεωρέω} schauen || §αὐτοῦ§ Pron.Gen.Sg.m. sein || §τὰ§ Art.Akk.Pl.n. {ὁ} die || §σημεῖα§ Subst.Akk.Pl.n. {σημεῖον} Zeichen || §ἃ§ RelPron.Akk.Pl.n. {ὅς} die || §ἐποίει§ Verb.Imperf.Ind.Akt.3.Sg. {ποιέω} tun</t>
-  </si>
-  <si>
-    <t>§αὐτὸς§ Pron.Nom.Sg.m. {αὐτός} er || §δὲ§ Part. aber || §Ἰησοῦς§ Eigenname.Nom.Sg.m. Jesus || §οὐκ§ Neg. nicht || §ἐπίστευεν§ Verb.Imperf.Ind.Akt.3.Sg. {πιστεύω} anvertrauen || §αὐτὸν§ Pron.Akk.Sg.m. {αὐτός} sich-selbst || §αὐτοῖς§ Pron.Dat.Pl.m. {αὐτός} sie || §διὰ§ Präp.+Akk. wegen || §τὸ§ Art.Akk.Sg.n. {ὁ} das || §αὐτὸν§ Pron.Akk.Sg.m. {αὐτός} er || §γινώσκειν§ Verb.Inf.Präs.Akt.ACI {γινώσκω} erkennen || §πάντας§ Adj.Akk.Pl.m. {πᾶς} alle</t>
-  </si>
-  <si>
-    <t>§ὅτι§ Konj. dass || §οὐ§ Neg. nicht || §χρείαν§ Subst.Akk.Sg.f. {χρεία} Bedürfnis || §εἶχεν§ Verb.Imperf.Ind.Akt.3.Sg. {ἔχω} haben || §ἵνα§ Konj.Final damit || §τις§ Indef.Pron.Nom.Sg. jemand || §μαρτυρήσῃ§ Verb.Aor.Konj.Akt.3.Sg. {μαρτυρέω} zeugen || §περὶ§ Präp.+Gen. über || §τοῦ§ Art.Gen.Sg.m. {ὁ} des || §ἀνθρώπου§ Subst.Gen.Sg.m. {ἄνθρωπος} Mensch || §αὐτὸς§ Pron.Nom.Sg.m. {αὐτός} er || §γὰρ§ Part. nämlich || §ἐγίνωσκεν§ Verb.Imperf.Ind.Akt.3.Sg. {γινώσκω} erkennen || §τί§ Interrog.Pron.Akk.Sg.n. was || §ἦν§ Verb.Imperf.Ind.Akt.3.Sg. {εἰμί} sein || §ἐν§ Präp.+Dat. in || §τῷ§ Art.Dat.Sg.m. {ὁ} dem || §ἀνθρώπῳ§ Subst.Dat.Sg.m. {ἄνθρωπος} Mensch</t>
+    <t>**τῇ** Art.Dat.Sg.f. {ὁ} der || **ἡμέρᾳ** Subst.Dat.Sg.f. {ἡμέρα} Tag || **τῇ** Art.Dat.Sg.f. {ὁ} der || **τρίτῃ** Adj.Dat.Sg.f. {τρίτος} dritter || **γάμος** Subst.Nom.Sg.m. Hochzeit || **ἐγένετο** Verb.Aor.Ind.Med.3.Sg. {γίνομαι} geschehen || **ἐν** Präp.+Dat. in || **Κανὰ** Eigenname.Dat.Sg. Kana || **τῆς** Art.Gen.Sg.f. {ὁ} der || **Γαλιλαίας** Eigenname.Gen.Sg.f. {Γαλιλαία} Galiläa || **ἦν** Verb.Imperf.Ind.Akt.3.Sg. {εἰμί} sein || **μήτηρ** Subst.Nom.Sg.f. Mutter || **τοῦ** Art.Gen.Sg.m. {ὁ} des || **Ἰησοῦ** Eigenname.Gen.Sg.m. {Ἰησοῦς} Jesus || **ἐκεῖ** Adv. dort</t>
+  </si>
+  <si>
+    <t>**ἐκλήθη** Verb.Aor.Ind.Pass.3.Sg. {καλέω} rufen || **δὲ** Part. aber || **Ἰησοῦς** Eigenname.Nom.Sg.m. Jesus || **οἱ** Art.Nom.Pl.m. die || **μαθηταί** Subst.Nom.Pl.m. {μαθητής} Jünger || **αὐτοῦ** Pron.Gen.Sg.m. sein || **εἰς** Präp.+Akk. zu || **τὸν** Art.Akk.Sg.m. {ὁ} der || **γάμον** Subst.Akk.Sg.m. Hochzeit</t>
+  </si>
+  <si>
+    <t>**ὑστερήσαντος** Part.Aor.Akt.Gen.Sg.m./n.GenAbs {ὑστερέω} fehlen || **οἴνου** Subst.Gen.Sg.m. {οἶνος} Wein || **λέγει** Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || **μήτηρ** Subst.Nom.Sg.f. Mutter || **τοῦ** Art.Gen.Sg.m. {ὁ} des || **Ἰησοῦ** Eigenname.Gen.Sg.m. {Ἰησοῦς} Jesus || **πρὸς** Präp.+Akk. zu || **αὐτόν** Pron.Akk.Sg.m. er || **οἶνον** Subst.Akk.Sg.m. {οἶνος} Wein || **οὐκ** Neg. nicht || **ἔχουσιν** Verb.Präs.Ind.Akt.3.Pl. {ἔχω} haben</t>
+  </si>
+  <si>
+    <t>**λέγει** Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || **αὐτῇ** Pron.Dat.Sg.f. sie || **Ἰησοῦς** Eigenname.Nom.Sg.m. Jesus || **τί** Interrog.Pron.Akk.Sg.n. was || **ἐμοί** Pron.Dat.Sg. {ἐγώ} ich || **σοί** Pron.Dat.Sg. {σύ} du || **γύναι** Subst.Vok.Sg.f. {γυνή} Frau || **οὔπω** Adv. noch || **ἥκει** Verb.Präs.Ind.Akt.3.Sg. {ἥκω} kommen || **ὥρα** Subst.Nom.Sg.f. Stunde || **μου** Pron.Gen.Sg. {ἐγώ} mein</t>
+  </si>
+  <si>
+    <t>**λέγει** Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || **μήτηρ** Subst.Nom.Sg.f. Mutter || **αὐτοῦ** Pron.Gen.Sg.m. sein || **τοῖς** Art.Dat.Pl.m. {ὁ} den || **διακόνοις** Subst.Dat.Pl.m. {διάκονος} Diener || **ὅ** RelPron.Akk.Sg.n. {ὅς} was || **τι** Indef.Pron. irgend || **ἄν** Part. — || **λέγῃ** Verb.Präs.Konj.Akt.3.Sg. {λέγω} sagen || **ὑμῖν** Pron.Dat.Pl. {σύ} ihr || **ποιήσατε** Verb.Aor.Imp.Akt.2.Pl. {ποιέω} tun</t>
+  </si>
+  <si>
+    <t>**ἦσαν** Verb.Imperf.Ind.Akt.3.Pl. {εἰμί} sein || **δὲ** Part. aber || **ἐκεῖ** Adv. dort || **λίθιναι** Adj.Nom.Pl.f. {λίθινος} steinern || **ὑδρίαι** Subst.Nom.Pl.f. {ὑδρία} Wasserkrug || **ἓξ** Zahlw.indecl. sechs || **κατὰ** Präp.+Akk. nach || **τὸν** Art.Akk.Sg.m. {ὁ} der || **καθαρισμόν** Subst.Akk.Sg.m. {καθαρισμός} Reinigung || **τῶν** Art.Gen.Pl.m. {ὁ} der || **Ἰουδαίων** Subst.Gen.Pl.m. {Ἰουδαῖος} Jude || **κείμεναι** Part.Präs.M/P.Nom.Pl.f. {κεῖμαι} liegen || **χωροῦσαι** Part.Präs.Akt.Nom.Pl.f. {χωρέω} fassen || **ἀνὰ** Präp.+Akk. je || **μετρητὰς** Subst.Akk.Pl.m. {μετρητής} Metrete || **δύο** Zahlw.indecl. zwei || **ἢ** Konj. oder || **τρεῖς** Zahlw.Akk.Pl.m. drei</t>
+  </si>
+  <si>
+    <t>**λέγει** Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || **αὐτοῖς** Pron.Dat.Pl.m. {αὐτός} sie || **Ἰησοῦς** Eigenname.Nom.Sg.m. Jesus || **γεμίσατε** Verb.Aor.Imp.Akt.2.Pl. {γεμίζω} füllen || **τὰς** Art.Akk.Pl.f. {ὁ} die || **ὑδρίας** Subst.Akk.Pl.f. {ὑδρία} Krug || **ὕδατος** Subst.Gen.Sg.n. {ὕδωρ} Wasser || **ἐγέμισαν** Verb.Aor.Ind.Akt.3.Pl. {γεμίζω} füllen || **αὐτὰς** Pron.Akk.Pl.f. {αὐτός} sie || **ἕως** Konj./Präp. bis || **ἄνω** Adv. oben</t>
+  </si>
+  <si>
+    <t>**λέγει** Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || **αὐτοῖς** Pron.Dat.Pl.m. {αὐτός} sie || **ἀντλήσατε** Verb.Aor.Imp.Akt.2.Pl. {ἀντλέω} schöpfen || **νῦν** Adv. jetzt || **φέρετε** Verb.Präs.Imp.Akt.2.Pl. {φέρω} bringen || **τῷ** Art.Dat.Sg.m. {ὁ} der || **ἀρχιτρικλίνῳ** Subst.Dat.Sg.m. {ἀρχιτρίκλινος} Speisemeister || **οἱ** Art.Nom.Pl.m. die || **δὲ** Part. aber || **ἤνεγκαν** Verb.Aor.Ind.Akt.3.Pl. {φέρω} bringen</t>
+  </si>
+  <si>
+    <t>**ὡς** Konj. als || **δὲ** Part. aber || **ἐγεύσατο** Verb.Aor.Ind.Med.3.Sg. {γεύομαι} kosten || **ἀρχιτρίκλινος** Subst.Nom.Sg.m. Speisemeister || **τὸ** Art.Akk.Sg.n. {ὁ} das || **ὕδωρ** Subst.Akk.Sg.n. {ὕδωρ} Wasser || **οἶνον** Subst.Akk.Sg.m. {οἶνος} Wein || **γεγενημένον** Part.Perf.M/P.Akk.Sg.m/n. {γίνομαι} werden || **οὐκ** Neg. nicht || **ᾔδει** Verb.Plqpf.Ind.Akt.3.Sg. {οἶδα} wissen || **πόθεν** Interrog.Adv. woher || **ἐστίν** Verb.Präs.Ind.Akt.3.Sg. {εἰμί} sein || **οἱ** Art.Nom.Pl.m. die || **δὲ** Part. aber || **διάκονοι** Subst.Nom.Pl.m. Diener || **ᾔδεισαν** Verb.Plqpf.Ind.Akt.3.Pl. {οἶδα} wissen || **οἱ** Art.Nom.Pl.m. die || **ἠντληκότες** Part.Perf.Akt.Nom.Pl.m. {ἀντλέω} schöpfen || **τὸ** Art.Akk.Sg.n. {ὁ} das || **ὕδωρ** Subst.Akk.Sg.n. {ὕδωρ} Wasser || **φωνεῖ** Verb.Präs.Ind.Akt.3.Sg. {φωνέω} rufen || **τὸν** Art.Akk.Sg.m. {ὁ} den || **νυμφίον** Subst.Akk.Sg.m. {νυμφίος} Bräutigam || **ἀρχιτρίκλινος** Subst.Nom.Sg.m. Speisemeister</t>
+  </si>
+  <si>
+    <t>**λέγει** Verb.Präs.Ind.Akt.3.Sg. {λέγω} sagen || **αὐτῷ** Pron.Dat.Sg.m. {αὐτός} er || **πᾶς** Adj.Nom.Sg.m. jeder || **ἄνθρωπος** Subst.Nom.Sg.m. {ἄνθρωπος} Mensch || **πρῶτον** Adv. {πρῶτος} zuerst || **τὸν** Art.Akk.Sg.m. {ὁ} den || **καλὸν** Adj.Akk.Sg.m. {καλός} gut || **οἶνον** Subst.Akk.Sg.m. {οἶνος} Wein || **τίθησιν** Verb.Präs.Ind.Akt.3.Sg. {τίθημι} stellen || **ὅταν** Konj. wenn || **μεθυσθῶσιν** Verb.Aor.Konj.Pass.3.Pl. {μεθύσκω} berauschen || **τὸν** Art.Akk.Sg.m. {ὁ} den || **ἐλάσσω** Adj.Akk.Sg.m. {ἐλάσσων} gering || **σὺ** Pron.Nom.Sg. {σύ} du || **τετήρηκας** Verb.Perf.Ind.Akt.2.Sg. {τηρέω} aufbewahren || **τὸν** Art.Akk.Sg.m. {ὁ} den || **καλὸν** Adj.Akk.Sg.m. {καλός} gut || **οἶνον** Subst.Akk.Sg.m. {οἶνος} Wein || **ἕως** Konj. bis || **ἄρτι** Adv. jetzt</t>
+  </si>
+  <si>
+    <t>**Ταύτην** DemPron.Akk.Sg.f. {οὗτος} dieses || **ἐποίησεν** Verb.Aor.Ind.Akt.3.Sg. {ποιέω} machen || **ἀρχὴν** Subst.Akk.Sg.f. {ἀρχή} Anfang || **τῶν** Art.Gen.Pl.n. {ὁ} der || **σημείων** Subst.Gen.Pl.n. {σημεῖον} Zeichen || **Ἰησοῦς** Eigenname.Nom.Sg.m. Jesus || **ἐν** Präp.+Dat. in || **Κανὰ** Eigenname.Dat.Sg. Kana || **τῆς** Art.Gen.Sg.f. {ὁ} der || **Γαλιλαίας** Eigenname.Gen.Sg.f. {Γαλιλαία} Galiläa || **ἐφανέρωσεν** Verb.Aor.Ind.Akt.3.Sg. {φανερόω} offenbaren || **τὴν** Art.Akk.Sg.f. {ὁ} die || **δόξαν** Subst.Akk.Sg.f. {δόξα} Herrlichkeit || **αὐτοῦ** Pron.Gen.Sg.m. sein || **ἐπίστευσαν** Verb.Aor.Ind.Akt.3.Pl. {πιστεύω} glauben || **εἰς** Präp.+Akk. in || **αὐτὸν** Pron.Akk.Sg.m. {αὐτός} er || **οἱ** Art.Nom.Pl.m. die || **μαθηταί** Subst.Nom.Pl.m. {μαθητής} Jünger || **αὐτοῦ** Pron.Gen.Sg.m. sein</t>
+  </si>
+  <si>
+    <t>**Μετὰ** Präp.+Akk. nach || **τοῦτο** DemPron.Akk.Sg.n. {οὗτος} dieses || **κατέβη** Verb.Aor.Ind.Akt.3.Sg. {καταβαίνω} hinabgehen || **εἰς** Präp.+Akk. nach || **Καφαρναοὺμ** Eigenname.Akk.Sg. Kapernaum || **αὐτὸς** Pron.Nom.Sg.m. {αὐτός} er || **μήτηρ** Subst.Nom.Sg.f. Mutter || **αὐτοῦ** Pron.Gen.Sg.m. sein || **οἱ** Art.Nom.Pl.m. die || **ἀδελφοὶ** Subst.Nom.Pl.m. {ἀδελφός} Bruder || **αὐτοῦ** Pron.Gen.Sg.m. sein || **οἱ** Art.Nom.Pl.m. die || **μαθηταί** Subst.Nom.Pl.m. {μαθητής} Jünger || **αὐτοῦ** Pron.Gen.Sg.m. sein || **ἐκεῖ** Adv. dort || **ἔμειναν** Verb.Aor.Ind.Akt.3.Pl. {μένω} bleiben || **οὐ** Neg. nicht || **πολλὰς** Adj.Akk.Pl.f. {πολύς} viel || **ἡμέρας** Subst.Akk.Pl.f. {ἡμέρα} Tag</t>
+  </si>
+  <si>
+    <t>**ἐγγὺς** Adv. nahe || **ἦν** Verb.Imperf.Ind.Akt.3.Sg. {εἰμί} sein || **πάσχα** Subst.Nom.Sg.n. Passa || **τῶν** Art.Gen.Pl.m. {ὁ} der || **Ἰουδαίων** Subst.Gen.Pl.m. {Ἰουδαῖος} Jude || **ἀνέβη** Verb.Aor.Ind.Akt.3.Sg. {ἀναβαίνω} hinaufgehen || **εἰς** Präp.+Akk. nach || **Ἱεροσόλυμα** Eigenname.Akk.Pl.n. Jerusalem || **Ἰησοῦς** Eigenname.Nom.Sg.m. Jesus</t>
+  </si>
+  <si>
+    <t>**εὗρεν** Verb.Aor.Ind.Akt.3.Sg. {εὑρίσκω} finden || **ἐν** Präp.+Dat. in || **τῷ** Art.Dat.Sg.n. {ὁ} dem || **ἱερῷ** Subst.Dat.Sg.n. {ἱερόν} Tempel || **τοὺς** Art.Akk.Pl.m. {ὁ} die || **πωλοῦντας** Part.Präs.Akt.Akk.Pl.m. {πωλέω} verkaufen || **βόας** Subst.Akk.Pl.m. {βοῦς} Rind || **πρόβατα** Subst.Akk.Pl.n. {πρόβατον} Schaf || **περιστερὰς** Subst.Akk.Pl.f. {περιστερά} Taube || **τοὺς** Art.Akk.Pl.m. {ὁ} die || **κερματιστὰς** Subst.Akk.Pl.m. {κερματιστής} Geldwechsler || **καθημένους** Part.Präs.M/P.Akk.Pl.m. {κάθημαι} sitzen</t>
+  </si>
+  <si>
+    <t>**ποιήσας** Part.Aor.Akt.Nom.Sg.m. {ποιέω} machen || **φραγέλλιον** Subst.Akk.Sg.n. Geißel || **ἐκ** Präp.+Gen. aus || **σχοινίων** Subst.Gen.Pl.n. {σχοινίον} Strick || **πάντας** Adj.Akk.Pl.m. {πᾶς} alle || **ἐξέβαλεν** Verb.Aor.Ind.Akt.3.Sg. {ἐκβάλλω} hinauswerfen || **ἐκ** Präp.+Gen. aus || **τοῦ** Art.Gen.Sg.n. {ὁ} des || **ἱεροῦ** Subst.Gen.Sg.n. {ἱερόν} Tempel || **τά** Art.Akk.Pl.n. {ὁ} die || **τε** Part. — || **πρόβατα** Subst.Akk.Pl.n. {πρόβατον} Schaf || **τοὺς** Art.Akk.Pl.m. {ὁ} die || **βόας** Subst.Akk.Pl.m. {βοῦς} Rind || **τῶν** Art.Gen.Pl.m. {ὁ} der || **κολλυβιστῶν** Subst.Gen.Pl.m. {κολλυβιστής} Geldwechsler || **ἐξέχεεν** Verb.Aor.Ind.Akt.3.Sg. {ἐκχέω} ausschütten || **τὸ** Art.Akk.Sg.n. {ὁ} die || **κέρμα** Subst.Akk.Sg.n. {κέρμα} Münze || **τὰς** Art.Akk.Pl.f. {ὁ} die || **τραπέζας** Subst.Akk.Pl.f. {τράπεζα} Tisch || **ἀνέτρεψεν** Verb.Aor.Ind.Akt.3.Sg. {ἀνατρέπω} umstürzen</t>
+  </si>
+  <si>
+    <t>**τοῖς** Art.Dat.Pl.m. {ὁ} den || **τὰς** Art.Akk.Pl.f. {ὁ} die || **περιστερὰς** Subst.Akk.Pl.f. {περιστερά} Taube || **πωλοῦσιν** Part.Präs.Akt.Dat.Pl.m. {πωλέω} verkaufen || **εἶπεν** Verb.Aor.Ind.Akt.3.Sg. {λέγω} sagen || **ἄρατε** Verb.Aor.Imp.Akt.2.Pl. {αἴρω} nehmen || **ταῦτα** DemPron.Akk.Pl.n. {οὗτος} dies || **ἐντεῦθεν** Adv. weg || **μὴ** Neg. nicht || **ποιεῖτε** Verb.Präs.Imp.Akt.2.Pl. {ποιέω} machen || **τὸν** Art.Akk.Sg.m. {ὁ} den || **οἶκον** Subst.Akk.Sg.m. {οἶκος} Haus || **τοῦ** Art.Gen.Sg.m. {ὁ} des || **πατρός** Subst.Gen.Sg.m. {πατήρ} Vater || **μου** Pron.Gen.Sg. {ἐγώ} mein || **οἶκον** Subst.Akk.Sg.m. {οἶκος} Haus || **ἐμπορίου** Subst.Gen.Sg.n. {ἐμπόριον} Handel</t>
+  </si>
+  <si>
+    <t>**ἐμνήσθησαν** Verb.Aor.Ind.Pass.3.Pl.(Depon.) {μιμνῄσκομαι} sich-erinnern || **οἱ** Art.Nom.Pl.m. die || **μαθηταὶ** Subst.Nom.Pl.m. {μαθητής} Jünger || **αὐτοῦ** Pron.Gen.Sg.m. sein || **ὅτι** Konj. dass || **γεγραμμένον** Part.Perf.M/P.Nom/Akk.Sg.n. {γράφω} geschrieben || **ἐστίν** Verb.Präs.Ind.Akt.3.Sg. {εἰμί} sein || **ζῆλος** Subst.Nom.Sg.m. Eifer || **τοῦ** Art.Gen.Sg.m. {ὁ} des || **οἴκου** Subst.Gen.Sg.m. {οἶκος} Haus || **σου** Pron.Gen.Sg. {σύ} dein || **καταφάγεταί** Verb.Fut.Ind.Med.3.Sg. {καταφάγω} verzehren || **με** Pron.Akk.Sg. {ἐγώ} ich</t>
+  </si>
+  <si>
+    <t>**Ἀπεκρίθησαν** Verb.Aor.Ind.Pass.3.Pl.(Depon.) {ἀποκρίνομαι} antworten || **οὖν** Part. nun || **οἱ** Art.Nom.Pl.m. die || **Ἰουδαῖοι** Subst.Nom.Pl.m. {Ἰουδαῖος} Jude || **εἶπαν** Verb.Aor.Ind.Akt.3.Pl. {λέγω} sagen || **αὐτῷ** Pron.Dat.Sg.m. {αὐτός} er || **τί** Interrog.Pron.Akk.Sg.n. was || **σημεῖον** Subst.Akk.Sg.n. {σημεῖον} Zeichen || **δεικνύεις** Verb.Präs.Ind.Akt.2.Sg. {δείκνυμι} zeigen || **ἡμῖν** Pron.Dat.Pl. {ἐγώ} wir || **ὅτι** Konj. dass || **ταῦτα** DemPron.Akk.Pl.n. {οὗτος} dieser || **ποιεῖς** Verb.Präs.Ind.Akt.2.Sg. {ποιέω} tun</t>
+  </si>
+  <si>
+    <t>**ἀπεκρίθη** Verb.Aor.Ind.Pass.3.Sg.(Depon.) {ἀποκρίνομαι} antworten || **Ἰησοῦς** Eigenname.Nom.Sg.m. Jesus || **εἶπεν** Verb.Aor.Ind.Akt.3.Sg. {λέγω} sagen || **αὐτοῖς** Pron.Dat.Pl.m. {αὐτός} sie || **λύσατε** Verb.Aor.Imp.Akt.2.Pl. {λύω} lösen || **τὸν** Art.Akk.Sg.m. {ὁ} den || **ναὸν** Subst.Akk.Sg.m. {ναός} Tempel || **τοῦτον** DemPron.Akk.Sg.m. {οὗτος} dieser || **ἐν** Präp.+Dat. in || **τρισὶν** Zahlw.Dat.Pl. {τρεῖς} drei || **ἡμέραις** Subst.Dat.Pl.f. {ἡμέρα} Tag || **ἐγερῶ** Verb.Fut.Ind.Akt.1.Sg. {ἐγείρω} aufrichten || **αὐτόν** Pron.Akk.Sg.m. {αὐτός} er</t>
+  </si>
+  <si>
+    <t>**εἶπαν** Verb.Aor.Ind.Akt.3.Pl. {λέγω} sagen || **οὖν** Part. nun || **οἱ** Art.Nom.Pl.m. die || **Ἰουδαῖοι** Subst.Nom.Pl.m. {Ἰουδαῖος} Jude || **τεσσεράκοντα** Zahlw.indecl. vierzig || **ἓξ** Zahlw.indecl. sechs || **ἔτεσιν** Subst.Dat.Pl.n. {ἔτος} Jahr || **οἰκοδομήθη** Verb.Aor.Ind.Pass.3.Sg. {οἰκοδομέω} bauen || **ναὸς** Subst.Nom.Sg.m. {ναός} Tempel || **οὗτος** DemPron.Nom.Sg.m. {οὗτος} dieser || **σὺ** Pron.Nom.Sg. {σύ} du || **ἐν** Präp.+Dat. in || **τρισὶν** Zahlw.Dat.Pl. {τρεῖς} drei || **ἡμέραις** Subst.Dat.Pl.f. {ἡμέρα} Tag || **ἐγερεῖς** Verb.Fut.Ind.Akt.2.Sg. {ἐγείρω} aufrichten || **αὐτόν** Pron.Akk.Sg.m. {αὐτός} er</t>
+  </si>
+  <si>
+    <t>**ἐκεῖνος** DemPron.Nom.Sg.m. jener || **δὲ** Part. aber || **ἔλεγεν** Verb.Imperf.Ind.Akt.3.Sg. {λέγω} sagen || **περὶ** Präp.+Gen. über || **τοῦ** Art.Gen.Sg.m. {ὁ} des || **ναοῦ** Subst.Gen.Sg.m. {ναός} Tempel || **τοῦ** Art.Gen.Sg.n. {ὁ} des || **σώματος** Subst.Gen.Sg.n. {σῶμα} Leib || **αὐτοῦ** Pron.Gen.Sg.m. sein</t>
+  </si>
+  <si>
+    <t>**ὅτε** Konj. als || **οὖν** Part. nun || **ἠγέρθη** Verb.Aor.Ind.Pass.3.Sg. {ἐγείρω} auferwecken || **ἐκ** Präp.+Gen. aus || **νεκρῶν** Subst.Gen.Pl.m. {νεκρός} Toter || **ἐμνήσθησαν** Verb.Aor.Ind.Pass.3.Pl.(Depon.) {μιμνῄσκομαι} sich-erinnern || **οἱ** Art.Nom.Pl.m. die || **μαθηταὶ** Subst.Nom.Pl.m. {μαθητής} Jünger || **αὐτοῦ** Pron.Gen.Sg.m. sein || **ὅτι** Konj. dass || **τοῦτο** DemPron.Akk.Sg.n. {οὗτος} dieses || **ἔλεγεν** Verb.Imperf.Ind.Akt.3.Sg. {λέγω} sagen || **ἐπίστευσαν** Verb.Aor.Ind.Akt.3.Pl. {πιστεύω} glauben || **τῇ** Art.Dat.Sg.f. {ὁ} der || **γραφῇ** Subst.Dat.Sg.f. {γραφή} Schrift || **τῷ** Art.Dat.Sg.m. {ὁ} dem || **λόγῳ** Subst.Dat.Sg.m. {λόγος} Wort || **ὃν** RelPron.Akk.Sg.m. {ὅς} der || **εἶπεν** Verb.Aor.Ind.Akt.3.Sg. {λέγω} sagen || **Ἰησοῦς** Eigenname.Nom.Sg.m. Jesus</t>
+  </si>
+  <si>
+    <t>**Ὡς** Konj. als || **δὲ** Part. aber || **ἦν** Verb.Imperf.Ind.Akt.3.Sg. {εἰμί} sein || **ἐν** Präp.+Dat. in || **τοῖς** Art.Dat.Pl.n. {ὁ} den || **Ἱεροσολύμοις** Eigenname.Dat.Pl.n. Jerusalem || **ἐν** Präp.+Dat. an || **τῷ** Art.Dat.Sg.n. {ὁ} dem || **πάσχα** Subst.Dat.Sg.n. Passa || **ἐν** Präp.+Dat. an || **τῇ** Art.Dat.Sg.f. {ὁ} der || **ἑορτῇ** Subst.Dat.Sg.f. {ἑορτή} Fest || **πολλοὶ** Adj.Nom.Pl.m. {πολύς} viel || **ἐπίστευσαν** Verb.Aor.Ind.Akt.3.Pl. {πιστεύω} glauben || **εἰς** Präp.+Akk. in || **τὸ** Art.Akk.Sg.n. {ὁ} den || **ὄνομα** Subst.Akk.Sg.n. {ὄνομα} Name || **αὐτοῦ** Pron.Gen.Sg.m. sein || **θεωροῦντες** Part.Präs.Akt.Nom.Pl.m. {θεωρέω} schauen || **αὐτοῦ** Pron.Gen.Sg.m. sein || **τὰ** Art.Akk.Pl.n. {ὁ} die || **σημεῖα** Subst.Akk.Pl.n. {σημεῖον} Zeichen || **ἃ** RelPron.Akk.Pl.n. {ὅς} die || **ἐποίει** Verb.Imperf.Ind.Akt.3.Sg. {ποιέω} tun</t>
+  </si>
+  <si>
+    <t>**αὐτὸς** Pron.Nom.Sg.m. {αὐτός} er || **δὲ** Part. aber || **Ἰησοῦς** Eigenname.Nom.Sg.m. Jesus || **οὐκ** Neg. nicht || **ἐπίστευεν** Verb.Imperf.Ind.Akt.3.Sg. {πιστεύω} anvertrauen || **αὐτὸν** Pron.Akk.Sg.m. {αὐτός} sich-selbst || **αὐτοῖς** Pron.Dat.Pl.m. {αὐτός} sie || **διὰ** Präp.+Akk. wegen || **τὸ** Art.Akk.Sg.n. {ὁ} das || **αὐτὸν** Pron.Akk.Sg.m. {αὐτός} er || **γινώσκειν** Verb.Inf.Präs.Akt.ACI {γινώσκω} erkennen || **πάντας** Adj.Akk.Pl.m. {πᾶς} alle</t>
+  </si>
+  <si>
+    <t>**ὅτι** Konj. dass || **οὐ** Neg. nicht || **χρείαν** Subst.Akk.Sg.f. {χρεία} Bedürfnis || **εἶχεν** Verb.Imperf.Ind.Akt.3.Sg. {ἔχω} haben || **ἵνα** Konj.Final damit || **τις** Indef.Pron.Nom.Sg. jemand || **μαρτυρήσῃ** Verb.Aor.Konj.Akt.3.Sg. {μαρτυρέω} zeugen || **περὶ** Präp.+Gen. über || **τοῦ** Art.Gen.Sg.m. {ὁ} des || **ἀνθρώπου** Subst.Gen.Sg.m. {ἄνθρωπος} Mensch || **αὐτὸς** Pron.Nom.Sg.m. {αὐτός} er || **γὰρ** Part. nämlich || **ἐγίνωσκεν** Verb.Imperf.Ind.Akt.3.Sg. {γινώσκω} erkennen || **τί** Interrog.Pron.Akk.Sg.n. was || **ἦν** Verb.Imperf.Ind.Akt.3.Sg. {εἰμί} sein || **ἐν** Präp.+Dat. in || **τῷ** Art.Dat.Sg.m. {ὁ} dem || **ἀνθρώπῳ** Subst.Dat.Sg.m. {ἄνθρωπος} Mensch</t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E26"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
